--- a/sap-cua-me-be/data/sap-cua-me.xlsx
+++ b/sap-cua-me-be/data/sap-cua-me.xlsx
@@ -37,7 +37,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>Varieties (array)</t>
+    <t>varieties (array)</t>
   </si>
   <si>
     <t>size (array)</t>
@@ -142,7 +142,7 @@
 Chăm sóc da cần kiên trì, chọn sản phẩm phù hợp sẽ giúp da khỏe đẹp hơn mỗi ngày.</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dc9klznrq/image/upload/v1739006928/products</t>
+    <t>https://res.cloudinary.com/dc9klznrq/image/upload/v1739006928/products/y2pdc8sdahcbghollbz4.jpg</t>
   </si>
   <si>
     <t>Simple</t>
@@ -539,7 +539,7 @@
     <t>healthcare</t>
   </si>
   <si>
-    <t>90, 50, 30</t>
+    <t>90000, 50000, 30000</t>
   </si>
   <si>
     <t>Trisa (cặp), Trisa (rời), Bàn chải Hàn Quốc</t>
